--- a/src/test/resources/FinalProjectExcel.xlsx
+++ b/src/test/resources/FinalProjectExcel.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="6">
   <si>
     <t>UserName</t>
   </si>

--- a/src/test/resources/FinalProjectExcel.xlsx
+++ b/src/test/resources/FinalProjectExcel.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
   <si>
     <t>UserName</t>
   </si>

--- a/src/test/resources/FinalProjectExcel.xlsx
+++ b/src/test/resources/FinalProjectExcel.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="6">
   <si>
     <t>UserName</t>
   </si>

--- a/src/test/resources/FinalProjectExcel.xlsx
+++ b/src/test/resources/FinalProjectExcel.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="6">
   <si>
     <t>UserName</t>
   </si>

--- a/src/test/resources/FinalProjectExcel.xlsx
+++ b/src/test/resources/FinalProjectExcel.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="6">
   <si>
     <t>UserName</t>
   </si>

--- a/src/test/resources/FinalProjectExcel.xlsx
+++ b/src/test/resources/FinalProjectExcel.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="6">
   <si>
     <t>UserName</t>
   </si>

--- a/src/test/resources/FinalProjectExcel.xlsx
+++ b/src/test/resources/FinalProjectExcel.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="6">
   <si>
     <t>UserName</t>
   </si>
